--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp8a-Bmpr2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H2">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I2">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J2">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N2">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P2">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q2">
-        <v>16.61588407283866</v>
+        <v>27.94575930823134</v>
       </c>
       <c r="R2">
-        <v>149.542956655548</v>
+        <v>251.511833774082</v>
       </c>
       <c r="S2">
-        <v>0.05762632047448748</v>
+        <v>0.08018601259711869</v>
       </c>
       <c r="T2">
-        <v>0.05762632047448749</v>
+        <v>0.08018601259711869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H3">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I3">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J3">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>120.711086</v>
       </c>
       <c r="O3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P3">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q3">
-        <v>15.00826415689489</v>
+        <v>24.48500985955422</v>
       </c>
       <c r="R3">
-        <v>135.074377412054</v>
+        <v>220.3650887359881</v>
       </c>
       <c r="S3">
-        <v>0.05205085906230889</v>
+        <v>0.07025592997433748</v>
       </c>
       <c r="T3">
-        <v>0.05205085906230891</v>
+        <v>0.07025592997433748</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H4">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I4">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J4">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N4">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P4">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q4">
-        <v>7.519494678428445</v>
+        <v>14.36300819384822</v>
       </c>
       <c r="R4">
-        <v>67.67545210585601</v>
+        <v>129.267073744634</v>
       </c>
       <c r="S4">
-        <v>0.02607870927877098</v>
+        <v>0.04121241950384934</v>
       </c>
       <c r="T4">
-        <v>0.02607870927877099</v>
+        <v>0.04121241950384935</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H5">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I5">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J5">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N5">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P5">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q5">
-        <v>5.989442831300444</v>
+        <v>11.699720086068</v>
       </c>
       <c r="R5">
-        <v>53.904985481704</v>
+        <v>105.297480774612</v>
       </c>
       <c r="S5">
-        <v>0.0207722652942881</v>
+        <v>0.03357052824568918</v>
       </c>
       <c r="T5">
-        <v>0.02077226529428811</v>
+        <v>0.03357052824568918</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3729963333333333</v>
+        <v>0.6085193333333334</v>
       </c>
       <c r="H6">
-        <v>1.118989</v>
+        <v>1.825558</v>
       </c>
       <c r="I6">
-        <v>0.1867874381458752</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="J6">
-        <v>0.1867874381458753</v>
+        <v>0.2605198214964337</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N6">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P6">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q6">
-        <v>8.72491513478111</v>
+        <v>12.30069459102711</v>
       </c>
       <c r="R6">
-        <v>78.52423621302999</v>
+        <v>110.706251319244</v>
       </c>
       <c r="S6">
-        <v>0.03025928403601978</v>
+        <v>0.03529493117543903</v>
       </c>
       <c r="T6">
-        <v>0.03025928403601979</v>
+        <v>0.03529493117543903</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.454042</v>
       </c>
       <c r="I7">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J7">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N7">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P7">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q7">
-        <v>36.440105650616</v>
+        <v>37.56663281270201</v>
       </c>
       <c r="R7">
-        <v>327.960950855544</v>
+        <v>338.0996953143181</v>
       </c>
       <c r="S7">
-        <v>0.126379625492165</v>
+        <v>0.1077916137015961</v>
       </c>
       <c r="T7">
-        <v>0.126379625492165</v>
+        <v>0.1077916137015961</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.454042</v>
       </c>
       <c r="I8">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J8">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>120.711086</v>
       </c>
       <c r="O8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P8">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q8">
         <v>32.91445276773467</v>
@@ -948,10 +948,10 @@
         <v>296.230074909612</v>
       </c>
       <c r="S8">
-        <v>0.114152144726165</v>
+        <v>0.09444290617229531</v>
       </c>
       <c r="T8">
-        <v>0.114152144726165</v>
+        <v>0.0944429061722953</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>2.454042</v>
       </c>
       <c r="I9">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J9">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N9">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P9">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q9">
-        <v>16.49091792648534</v>
+        <v>19.30775431624067</v>
       </c>
       <c r="R9">
-        <v>148.418261338368</v>
+        <v>173.769788846166</v>
       </c>
       <c r="S9">
-        <v>0.05719291956926628</v>
+        <v>0.05540059991743097</v>
       </c>
       <c r="T9">
-        <v>0.0571929195692663</v>
+        <v>0.05540059991743097</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.454042</v>
       </c>
       <c r="I10">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J10">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N10">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P10">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q10">
-        <v>13.13537868970134</v>
+        <v>15.727577255532</v>
       </c>
       <c r="R10">
-        <v>118.218408207312</v>
+        <v>141.548195299788</v>
       </c>
       <c r="S10">
-        <v>0.04555541785247699</v>
+        <v>0.04512783832510803</v>
       </c>
       <c r="T10">
-        <v>0.04555541785247699</v>
+        <v>0.04512783832510802</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.454042</v>
       </c>
       <c r="I11">
-        <v>0.4096413979783358</v>
+        <v>0.3502088587624996</v>
       </c>
       <c r="J11">
-        <v>0.4096413979783359</v>
+        <v>0.3502088587624995</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N11">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P11">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q11">
-        <v>19.13451176659333</v>
+        <v>16.53544897261733</v>
       </c>
       <c r="R11">
-        <v>172.21060589934</v>
+        <v>148.819040753556</v>
       </c>
       <c r="S11">
-        <v>0.06636129033826255</v>
+        <v>0.04744590064606917</v>
       </c>
       <c r="T11">
-        <v>0.06636129033826256</v>
+        <v>0.04744590064606916</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H12">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J12">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N12">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P12">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q12">
-        <v>13.094559036756</v>
+        <v>15.74406862167533</v>
       </c>
       <c r="R12">
-        <v>117.851031330804</v>
+        <v>141.696617595078</v>
       </c>
       <c r="S12">
-        <v>0.04541384931528849</v>
+        <v>0.04517515773692746</v>
       </c>
       <c r="T12">
-        <v>0.0454138493152885</v>
+        <v>0.04517515773692746</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H13">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J13">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>120.711086</v>
       </c>
       <c r="O13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P13">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q13">
-        <v>11.827634339538</v>
+        <v>13.79435323905022</v>
       </c>
       <c r="R13">
-        <v>106.448709055842</v>
+        <v>124.149179151452</v>
       </c>
       <c r="S13">
-        <v>0.04101996883930039</v>
+        <v>0.03958075249971052</v>
       </c>
       <c r="T13">
-        <v>0.0410199688393004</v>
+        <v>0.03958075249971052</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H14">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J14">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N14">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P14">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q14">
-        <v>5.925924047232</v>
+        <v>8.091824742476222</v>
       </c>
       <c r="R14">
-        <v>53.333316425088</v>
+        <v>72.82642268228599</v>
       </c>
       <c r="S14">
-        <v>0.02055197284455553</v>
+        <v>0.02321823334901327</v>
       </c>
       <c r="T14">
-        <v>0.02055197284455554</v>
+        <v>0.02321823334901328</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H15">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J15">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N15">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P15">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q15">
-        <v>4.720128788087999</v>
+        <v>6.591382751772001</v>
       </c>
       <c r="R15">
-        <v>42.481159092792</v>
+        <v>59.32244476594799</v>
       </c>
       <c r="S15">
-        <v>0.0163700982163114</v>
+        <v>0.01891294827728448</v>
       </c>
       <c r="T15">
-        <v>0.01637009821631141</v>
+        <v>0.01891294827728448</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.293949</v>
+        <v>0.3428273333333333</v>
       </c>
       <c r="H16">
-        <v>0.8818469999999999</v>
+        <v>1.028482</v>
       </c>
       <c r="I16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="J16">
-        <v>0.1472024675547531</v>
+        <v>0.1467715334447304</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N16">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P16">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q16">
-        <v>6.875885497409999</v>
+        <v>6.92995948327511</v>
       </c>
       <c r="R16">
-        <v>61.88296947668999</v>
+        <v>62.36963534947598</v>
       </c>
       <c r="S16">
-        <v>0.02384657833929729</v>
+        <v>0.01988444158179465</v>
       </c>
       <c r="T16">
-        <v>0.0238465783392973</v>
+        <v>0.01988444158179465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H17">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J17">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N17">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O17">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P17">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q17">
-        <v>14.43674662346133</v>
+        <v>15.043893067133</v>
       </c>
       <c r="R17">
-        <v>129.930719611152</v>
+        <v>135.395037604197</v>
       </c>
       <c r="S17">
-        <v>0.05006875251931324</v>
+        <v>0.04316611281467376</v>
       </c>
       <c r="T17">
-        <v>0.05006875251931324</v>
+        <v>0.04316611281467376</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H18">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J18">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>120.711086</v>
       </c>
       <c r="O18">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P18">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q18">
-        <v>13.03996260092178</v>
+        <v>13.18088608765533</v>
       </c>
       <c r="R18">
-        <v>117.359663408296</v>
+        <v>118.627974788898</v>
       </c>
       <c r="S18">
-        <v>0.04522450087650812</v>
+        <v>0.03782050386280267</v>
       </c>
       <c r="T18">
-        <v>0.04522450087650812</v>
+        <v>0.03782050386280267</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H19">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J19">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N19">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O19">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P19">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q19">
-        <v>6.533329128504889</v>
+        <v>7.731962370654332</v>
       </c>
       <c r="R19">
-        <v>58.799962156544</v>
+        <v>69.587661335889</v>
       </c>
       <c r="S19">
-        <v>0.02265854266159469</v>
+        <v>0.0221856642081333</v>
       </c>
       <c r="T19">
-        <v>0.0226585426615947</v>
+        <v>0.0221856642081333</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H20">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J20">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N20">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O20">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P20">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q20">
-        <v>5.203940289432889</v>
+        <v>6.298248544578</v>
       </c>
       <c r="R20">
-        <v>46.83546260489599</v>
+        <v>56.684236901202</v>
       </c>
       <c r="S20">
-        <v>0.01804802738959676</v>
+        <v>0.01807184523293881</v>
       </c>
       <c r="T20">
-        <v>0.01804802738959676</v>
+        <v>0.01807184523293881</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3240786666666666</v>
+        <v>0.327581</v>
       </c>
       <c r="H21">
-        <v>0.9722359999999999</v>
+        <v>0.9827429999999999</v>
       </c>
       <c r="I21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="J21">
-        <v>0.1622906674803712</v>
+        <v>0.1402442600765737</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N21">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O21">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P21">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q21">
-        <v>7.580661285302221</v>
+        <v>6.621767976952666</v>
       </c>
       <c r="R21">
-        <v>68.22595156771999</v>
+        <v>59.59591179257399</v>
       </c>
       <c r="S21">
-        <v>0.02629084403335844</v>
+        <v>0.01900013395802514</v>
       </c>
       <c r="T21">
-        <v>0.02629084403335844</v>
+        <v>0.01900013395802514</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H22">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I22">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J22">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>44.547044</v>
+        <v>45.924193</v>
       </c>
       <c r="N22">
-        <v>133.641132</v>
+        <v>137.772579</v>
       </c>
       <c r="O22">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="P22">
-        <v>0.3085128263790582</v>
+        <v>0.307792367338991</v>
       </c>
       <c r="Q22">
-        <v>8.368815572045333</v>
+        <v>10.96887103353533</v>
       </c>
       <c r="R22">
-        <v>75.319340148408</v>
+        <v>98.71983930181801</v>
       </c>
       <c r="S22">
-        <v>0.02902427857780398</v>
+        <v>0.03147347048867503</v>
       </c>
       <c r="T22">
-        <v>0.02902427857780398</v>
+        <v>0.03147347048867503</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H23">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I23">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J23">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>120.711086</v>
       </c>
       <c r="O23">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="P23">
-        <v>0.2786635952555802</v>
+        <v>0.2696759485354523</v>
       </c>
       <c r="Q23">
-        <v>7.559115978120445</v>
+        <v>9.610506998290223</v>
       </c>
       <c r="R23">
-        <v>68.03204380308401</v>
+        <v>86.494562984612</v>
       </c>
       <c r="S23">
-        <v>0.02621612175129775</v>
+        <v>0.02757585602630632</v>
       </c>
       <c r="T23">
-        <v>0.02621612175129776</v>
+        <v>0.02757585602630632</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H24">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I24">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J24">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>20.15970133333333</v>
+        <v>23.60320766666667</v>
       </c>
       <c r="N24">
-        <v>60.47910400000001</v>
+        <v>70.809623</v>
       </c>
       <c r="O24">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351338</v>
       </c>
       <c r="P24">
-        <v>0.13961704029799</v>
+        <v>0.1581930283351339</v>
       </c>
       <c r="Q24">
-        <v>3.787295571086223</v>
+        <v>5.637563209296222</v>
       </c>
       <c r="R24">
-        <v>34.085660139776</v>
+        <v>50.738068883666</v>
       </c>
       <c r="S24">
-        <v>0.01313489594380253</v>
+        <v>0.01617611135670694</v>
       </c>
       <c r="T24">
-        <v>0.01313489594380254</v>
+        <v>0.01617611135670695</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H25">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I25">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J25">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.05764533333333</v>
+        <v>19.226538</v>
       </c>
       <c r="N25">
-        <v>48.172936</v>
+        <v>57.679614</v>
       </c>
       <c r="O25">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="P25">
-        <v>0.1112080421493099</v>
+        <v>0.1288597852280838</v>
       </c>
       <c r="Q25">
-        <v>3.016664187998222</v>
+        <v>4.592207330532</v>
       </c>
       <c r="R25">
-        <v>27.149977691984</v>
+        <v>41.329865974788</v>
       </c>
       <c r="S25">
-        <v>0.01046223339663662</v>
+        <v>0.01317662514706332</v>
       </c>
       <c r="T25">
-        <v>0.01046223339663662</v>
+        <v>0.01317662514706332</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.1878646666666667</v>
+        <v>0.2388473333333333</v>
       </c>
       <c r="H26">
-        <v>0.563594</v>
+        <v>0.716542</v>
       </c>
       <c r="I26">
-        <v>0.09407802884066457</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="J26">
-        <v>0.09407802884066459</v>
+        <v>0.1022555262197627</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.39142333333333</v>
+        <v>20.21413933333333</v>
       </c>
       <c r="N26">
-        <v>70.17426999999999</v>
+        <v>60.64241799999999</v>
       </c>
       <c r="O26">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="P26">
-        <v>0.1619984959180618</v>
+        <v>0.1354788705623391</v>
       </c>
       <c r="Q26">
-        <v>4.394421947375555</v>
+        <v>4.82809327539511</v>
       </c>
       <c r="R26">
-        <v>39.54979752638</v>
+        <v>43.45283947855599</v>
       </c>
       <c r="S26">
-        <v>0.0152404991711237</v>
+        <v>0.0138534632010111</v>
       </c>
       <c r="T26">
-        <v>0.0152404991711237</v>
+        <v>0.0138534632010111</v>
       </c>
     </row>
   </sheetData>
